--- a/OnboardingTaskMars/Task1.xlsx
+++ b/OnboardingTaskMars/Task1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Leticia\OnboardingTaskMars\OnboardingTaskMars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C3DFA80-595D-4562-AF95-55C795ACD2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038974BC-C675-4B0D-9D16-BAA7BFC59BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{BF0A7EEB-B44B-45ED-BC32-7168554FBFCA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BF0A7EEB-B44B-45ED-BC32-7168554FBFCA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +35,454 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="96">
+  <si>
+    <t>After or During Execution</t>
+  </si>
+  <si>
+    <t>ID : Test Case Description</t>
+  </si>
+  <si>
+    <t>Pre-Condition</t>
+  </si>
+  <si>
+    <t>Test Step</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>User Story 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>As a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> user I would be able to show what languages and skills I know
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>So that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the people seeking for skills and languages can look at what details I hold.</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Type of test</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Extended Positive</t>
+  </si>
+  <si>
+    <t>Verify if the user is able to login with valid credentials</t>
+  </si>
+  <si>
+    <t>Verify if the user is able to login with invalid credentials</t>
+  </si>
+  <si>
+    <t>Destructive</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>TC_013</t>
+  </si>
+  <si>
+    <t>User should have a registered account</t>
+  </si>
+  <si>
+    <t>Email address: leticia.ltm@gmail.com
+Password: QAMars2024*</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Email address: leticia.ltm@gmail.com
+Password: 123123</t>
+  </si>
+  <si>
+    <t>1. Launch "http://localhost:5000/"
+2. Click on "Sign in"
+3. Enter invalid credentials
+4. Click on "Login"</t>
+  </si>
+  <si>
+    <t>1. Launch "http://localhost:5000/"
+2. Click on "Sign in"
+3. Enter valid credentials
+4. Click on "Login"</t>
+  </si>
+  <si>
+    <t>User should be logged in</t>
+  </si>
+  <si>
+    <t>User should be able to login</t>
+  </si>
+  <si>
+    <t>User should not be able to login</t>
+  </si>
+  <si>
+    <t>User logged in</t>
+  </si>
+  <si>
+    <t>User did not log in</t>
+  </si>
+  <si>
+    <t>1. Launch "http://localhost:5000/"
+2. Click on "Sign in"
+3. Enter valid credentials
+4. Click on "Login"
+5. Click on "Profile", then on "Languages"
+6. Click on "Add New"
+7. Type the language on the text box, click on the dropdown arrow to choose the language level and click on "Add"</t>
+  </si>
+  <si>
+    <t>Email address: leticia.ltm@gmail.com
+Password: QAMars2024*
+Language: English
+Language Level: Fluent</t>
+  </si>
+  <si>
+    <t>User should be logged in and have an existing language record</t>
+  </si>
+  <si>
+    <t>1. Launch "http://localhost:5000/"
+2. Click on "Sign in"
+3. Enter valid credentials
+4. Click on "Login"
+5. Click on "Profile", then on "Languages"
+6. Click on the edit button of the existing record
+7. Enter a new language on the text box, click on the dropdown arrow to select a new language level and click on "Update"</t>
+  </si>
+  <si>
+    <t>Email address: leticia.ltm@gmail.com
+Password: QAMars2024*
+Language: Portuguese
+Language Level: Native/Bilingual</t>
+  </si>
+  <si>
+    <t>User should be able to edit an existing language record</t>
+  </si>
+  <si>
+    <t>Verify if the user is able to add a new language record</t>
+  </si>
+  <si>
+    <t>Verify if the user is able to edit an existing language record</t>
+  </si>
+  <si>
+    <t>Verify if the user is able to delete an existing language record</t>
+  </si>
+  <si>
+    <t>Verify if the user is able to add more language records than the minimum permitted</t>
+  </si>
+  <si>
+    <t>Verify if the user is able to add a new language record with null data</t>
+  </si>
+  <si>
+    <t>Verify if the user is able to add a new skill record</t>
+  </si>
+  <si>
+    <t>Verify if the user is able to edit an existing skill record</t>
+  </si>
+  <si>
+    <t>Verify if the user is able to delete an existing skill record</t>
+  </si>
+  <si>
+    <t>Verify if the user is able to add a new skill record with null data</t>
+  </si>
+  <si>
+    <t>User edited an existing language record</t>
+  </si>
+  <si>
+    <t>User added a new language record</t>
+  </si>
+  <si>
+    <t>User should be logged in and have multiple language records</t>
+  </si>
+  <si>
+    <t>User should be logged in and have an existing skill record</t>
+  </si>
+  <si>
+    <t>1. Launch "http://localhost:5000/"
+2. Click on "Sign in"
+3. Enter valid credentials
+4. Click on "Login"
+5. Click on "Profile", then on "Languages"
+6. Click on the delete button of the existing record</t>
+  </si>
+  <si>
+    <t>1. Launch "http://localhost:5000/"
+2. Click on "Sign in"
+3. Enter valid credentials
+4. Click on "Login"
+5. Click on "Profile", then on "Skills"
+6. Click on the delete button of the existing record</t>
+  </si>
+  <si>
+    <t>User should be able to delete an existing language record</t>
+  </si>
+  <si>
+    <t>User deleted an existing language record</t>
+  </si>
+  <si>
+    <t>Email address: leticia.ltm@gmail.com
+Password: QAMars2024*
+Language 1: English
+Language Level 1: Fluent
+Language 2: Portuguese
+Language Level 2: Native/Bilingual
+Language 3: Spanish
+Language Level 3: Conversational
+Language 4: French
+Language Level 4: Basic
+Language 5: Italian
+Language Level 5: Basic</t>
+  </si>
+  <si>
+    <t>1. Launch "http://localhost:5000/"
+2. Click on "Sign in"
+3. Enter valid credentials
+4. Click on "Login"
+5. Click on "Profile", then on "Languages"
+6. Click on "Add New"
+7. Type the language on the text box, click on the dropdown arrow to choose the language level and click on "Add"
+8. Repeat Step 6 &amp; 7 until no more records can't be added</t>
+  </si>
+  <si>
+    <t>User should not be able to add more records than the minimum of 4</t>
+  </si>
+  <si>
+    <t>User did not add more records than the minimum of 4</t>
+  </si>
+  <si>
+    <t>1. Launch "http://localhost:5000/"
+2. Click on "Sign in"
+3. Enter valid credentials
+4. Click on "Login"
+5. Click on "Profile", then on "Languages"
+6. Click on "Add New"
+7. Leave the "Add Language" text box empty, click on the dropdown arrow to choose the language level and click on "Add"</t>
+  </si>
+  <si>
+    <t>Email address: leticia.ltm@gmail.com
+Password: QAMars2024*
+Language: [null]
+Language Level: Basic</t>
+  </si>
+  <si>
+    <t>User should not be able to add a new language record with null data</t>
+  </si>
+  <si>
+    <t>User could not add a new record with null data</t>
+  </si>
+  <si>
+    <t>1. Launch "http://localhost:5000/"
+2. Click on "Sign in"
+3. Enter valid credentials
+4. Click on "Login"
+5. Click on "Profile", then on "Languages"
+6. Click on "Add New"
+7. Type the language on the text box, click on the dropdown arrow to choose the language level and click on "Add"
+8. Repeat Steps 6 &amp; 7</t>
+  </si>
+  <si>
+    <t>Email address: leticia.ltm@gmail.com
+Password: QAMars2024*
+Language 1: English
+Language Level 1: Fluent
+Language 2: English
+Language Level 2: Basic</t>
+  </si>
+  <si>
+    <t>Verify if the user is able to add a new language record with existing data</t>
+  </si>
+  <si>
+    <t>Verify if the user is able to add a new skill record with existing data</t>
+  </si>
+  <si>
+    <t>User should not be able to add a new record with existing data</t>
+  </si>
+  <si>
+    <t>User could not add a new record with existing data</t>
+  </si>
+  <si>
+    <t>1. Launch "http://localhost:5000/"
+2. Click on "Sign in"
+3. Enter valid credentials
+4. Click on "Login"
+5. Click on "Profile", then on "Skills"
+6. Click on "Add New"
+7. Type the skill on the text box, click on the dropdown arrow to choose the skill level and click on "Add"</t>
+  </si>
+  <si>
+    <t>Email address: leticia.ltm@gmail.com
+Password: QAMars2024*
+Skill: Writing
+Skill Level: Expert</t>
+  </si>
+  <si>
+    <t>User should be able to add a new language record</t>
+  </si>
+  <si>
+    <t>User should be able to add a new skill record</t>
+  </si>
+  <si>
+    <t>User added a new skill record</t>
+  </si>
+  <si>
+    <t>1. Launch "http://localhost:5000/"
+2. Click on "Sign in"
+3. Enter valid credentials
+4. Click on "Login"
+5. Click on "Profile", then on "Skills"
+6. Click on the edit button of the existing record
+7. Enter a new skill on the text box, click on the dropdown arrow to select a new skill level and click on "Update"</t>
+  </si>
+  <si>
+    <t>Email address: leticia.ltm@gmail.com
+Password: QAMars2024*
+Skill: Constructing
+Skill Level: Intermediate</t>
+  </si>
+  <si>
+    <t>User should be able to edit an existing skill record</t>
+  </si>
+  <si>
+    <t>User edited an existing skill record</t>
+  </si>
+  <si>
+    <t>User should be able to delete an existing skill record</t>
+  </si>
+  <si>
+    <t>User deleted an existing skill record</t>
+  </si>
+  <si>
+    <t>1. Launch "http://localhost:5000/"
+2. Click on "Sign in"
+3. Enter valid credentials
+4. Click on "Login"
+5. Click on "Profile", then on "Skills"
+6. Click on "Add New"
+7. Leave the "Add Skill" text box empty, click on the dropdown arrow to choose the skill level and click on "Add"</t>
+  </si>
+  <si>
+    <t>Email address: leticia.ltm@gmail.com
+Password: QAMars2024*
+Skill: [null]
+Skill Level: Beginner</t>
+  </si>
+  <si>
+    <t>User should not be able to add a new skill record with null data</t>
+  </si>
+  <si>
+    <t>1. Launch "http://localhost:5000/"
+2. Click on "Sign in"
+3. Enter valid credentials
+4. Click on "Login"
+5. Click on "Profile", then on "Skills"
+6. Click on "Add New"
+7. Type the skill on the text box, click on the dropdown arrow to choose the skill level and click on "Add"
+8. Repeat Steps 6 &amp; 7</t>
+  </si>
+  <si>
+    <t>Email address: leticia.ltm@gmail.com
+Password: QAMars2024*
+Skill 1: Writing
+Skill Level 1: Beginner
+Skill 2: Writing
+Skill Level 2: Intermediate</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +490,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +544,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +913,494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308221CA-F4F8-41CE-8DB5-34E24F02B3A3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="65" style="12" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="192" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>